--- a/biology/Microbiologie/Tracheliidae/Tracheliidae.xlsx
+++ b/biology/Microbiologie/Tracheliidae/Tracheliidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tracheliida
-Les Tracheliidae sont une famille de Ciliés de la classe des Litostomatea et de l’ordre des Haptorida[1],[2],[3], ou bien l'unique famille de l'ordre des Tracheliida[4],[5].
+Les Tracheliidae sont une famille de Ciliés de la classe des Litostomatea et de l’ordre des Haptorida ou bien l'unique famille de l'ordre des Tracheliida,.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Trachelius.
 </t>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1838, C.G.  Ehrenberg décrit ainsi le genre type et quelques espèces[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1838, C.G.  Ehrenberg décrit ainsi le genre type et quelques espèces :
 Le Trachelius (trachèle) est un animal de la famille des Trachéliens, dont le corps est cilié de tous côtés, ayant une bouche simple sans dents, la lèvre supérieure très allongée ayant la forme d’une trompe.
 Trachelius anas (trachèle oie) a un corps cylindrique en massue, blanc, ayant une trompe épaisse, arrondie au bout, plus courte que la moitie du corps et la bouche justement à la base de la trompe.
 Trachelius anaticula (trachèle oison), a un corps petit, ovale, piriforme, blanc, aminci et diaphane sur l'extrémité antérieure.
@@ -582,9 +598,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des ciliés vivant en eau de mer, en eau douce ou terrestres[1] et à répartition cosmopolite[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des ciliés vivant en eau de mer, en eau douce ou terrestres et à répartition cosmopolite.
 </t>
         </is>
       </c>
@@ -613,20 +631,22 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (26 juin 2023)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (26 juin 2023) :
 Apodileptus Vdacný, Orsi, Bourland, Shimano, Epstein &amp; Foissner, 2011
 Apotrachelius Vdacný, Al-Rasheid &amp; Foissner, 2012
 Branchioecetes Kahl, 1931
 Dileptus Dujardin, 1841
 Microdileptus Vdacný &amp; Foissner, 2012
 Monomacrocaryon Vdacný, Orsi, Bourland, Shimano, Epstein &amp; Foissner, 2011
-Ophionecta nomen nudum par absence de description de Jankowski (1976)[7]
+Ophionecta nomen nudum par absence de description de Jankowski (1976)
 Paradileptus Wenrich, 1929
 Teuthophrys Chatton &amp; Beauchamp, 1923
 Trachelius Schrank, 1803 genre type
-Genres synonymes : Harmodirus, Ophryocerca[7]
+Genres synonymes : Harmodirus, Ophryocerca
 Espèce type : Trachelius ovum Schrank, 1803</t>
         </is>
       </c>
